--- a/MRP/bom_template.xlsx
+++ b/MRP/bom_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SertTech_MYXFIN\Boamax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\st_myxfinancials\MRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D910A3C-E2EB-4E76-9D37-5B5FC984A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE3D79-1EF7-4238-8578-165EA12B3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1551D54-4822-4144-AFA7-E18F64290B10}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>mainitem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>subitem</t>
   </si>
@@ -406,20 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED0B67-C7DE-4806-870B-1FF2E954C58A}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -444,9 +438,6 @@
       </c>
       <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/MRP/bom_template.xlsx
+++ b/MRP/bom_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\st_myxfinancials\MRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE3D79-1EF7-4238-8578-165EA12B3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FEB46D-B70D-49A0-A584-3E611CFFF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1551D54-4822-4144-AFA7-E18F64290B10}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>subitem</t>
   </si>
@@ -33,25 +33,13 @@
     <t>unit</t>
   </si>
   <si>
-    <t>qty1</t>
+    <t>sortnum</t>
   </si>
   <si>
-    <t>qty2</t>
+    <t>version</t>
   </si>
   <si>
-    <t>qty3</t>
-  </si>
-  <si>
-    <t>qty4</t>
-  </si>
-  <si>
-    <t>qty5</t>
-  </si>
-  <si>
-    <t>clevel</t>
-  </si>
-  <si>
-    <t>sortnum</t>
+    <t>qty</t>
   </si>
 </sst>
 </file>
@@ -403,17 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED0B67-C7DE-4806-870B-1FF2E954C58A}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -422,22 +410,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MRP/bom_template.xlsx
+++ b/MRP/bom_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\st_myxfinancials\MRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\st_myxfinancials\MRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FEB46D-B70D-49A0-A584-3E611CFFF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF2BC6-CE39-4EBA-AED1-5C38CAB50357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1551D54-4822-4144-AFA7-E18F64290B10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E1551D54-4822-4144-AFA7-E18F64290B10}"/>
   </bookViews>
   <sheets>
     <sheet name="item_bom" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>subitem</t>
   </si>
@@ -40,6 +40,45 @@
   </si>
   <si>
     <t>qty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>changebill</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>1-03-00355</t>
+  </si>
+  <si>
+    <t>1-01-01165</t>
+  </si>
+  <si>
+    <t>1-02-01107</t>
+  </si>
+  <si>
+    <t>1-04-00001</t>
+  </si>
+  <si>
+    <t>1-04-00682</t>
+  </si>
+  <si>
+    <t>1-04-00442</t>
+  </si>
+  <si>
+    <t>1-04-00657</t>
+  </si>
+  <si>
+    <t>1-02-01679</t>
+  </si>
+  <si>
+    <t>1-02-01655</t>
+  </si>
+  <si>
+    <t>PCS</t>
   </si>
 </sst>
 </file>
@@ -75,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,15 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED0B67-C7DE-4806-870B-1FF2E954C58A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -413,7 +457,190 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
